--- a/game19/web.xlsx
+++ b/game19/web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16575" windowHeight="10080"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>domain</t>
   </si>
@@ -45,34 +45,46 @@
     <t>json</t>
   </si>
   <si>
-    <t>play.vetch.cloud</t>
+    <t>gewgaw.fun</t>
+  </si>
+  <si>
+    <t>#bd9683</t>
+  </si>
+  <si>
+    <t>evanesce.cloud</t>
+  </si>
+  <si>
+    <t>#38dbf8</t>
+  </si>
+  <si>
+    <t>sidle.fun</t>
+  </si>
+  <si>
+    <t>#ff6b35</t>
+  </si>
+  <si>
+    <t>delique.cloud</t>
+  </si>
+  <si>
+    <t>#4caf50</t>
+  </si>
+  <si>
+    <t>pirouete.fun</t>
   </si>
   <si>
     <t>#bce3fe</t>
   </si>
   <si>
-    <t>play.vervain.site</t>
-  </si>
-  <si>
-    <t>#4caf50</t>
-  </si>
-  <si>
-    <t>play.apricate.cloud</t>
+    <t>paly.sorrel.cloud</t>
+  </si>
+  <si>
+    <t>paly.defenestrate.site</t>
   </si>
   <si>
     <t>#ffa500</t>
   </si>
   <si>
-    <t>paly.sorrel.cloud</t>
-  </si>
-  <si>
-    <t>paly.defenestrate.site</t>
-  </si>
-  <si>
     <t>paly.knapweed.fun</t>
-  </si>
-  <si>
-    <t>#38dbf8</t>
   </si>
   <si>
     <t>#f7ece7</t>
@@ -339,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,19 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDEAE5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF36B06F"/>
+        <fgColor rgb="FFBD9683"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF38DBF8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6B35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4CAF50"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +798,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,16 +822,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -822,89 +840,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,17 +975,26 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1355,7 +1382,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1381,10 +1408,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D2">
@@ -1395,10 +1422,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D3">
@@ -1409,10 +1436,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D4">
@@ -1423,9 +1450,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="23"/>
       <c r="D5">
         <v>4</v>
       </c>
@@ -1434,9 +1465,13 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="23"/>
       <c r="D6">
         <v>5</v>
       </c>
@@ -1446,10 +1481,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" tooltip="http://qgggame.top"/>
-    <hyperlink ref="A2" r:id="rId2" display="play.vetch.cloud" tooltip="http://vetch.cloud"/>
-    <hyperlink ref="A3" r:id="rId3" display="play.vervain.site" tooltip="http://vervain.site"/>
-    <hyperlink ref="A4" r:id="rId4" display="play.apricate.cloud" tooltip="http://apricate.cloud"/>
+    <hyperlink ref="A2" r:id="rId1" display="gewgaw.fun"/>
+    <hyperlink ref="A3" r:id="rId2" display="evanesce.cloud"/>
+    <hyperlink ref="A4" r:id="rId3" display="sidle.fun"/>
+    <hyperlink ref="A5" r:id="rId4" display="delique.cloud"/>
+    <hyperlink ref="A6" r:id="rId5" display="pirouete.fun"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1489,10 +1525,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1503,10 +1539,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1517,10 +1553,10 @@
     </row>
     <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1529,20 +1565,20 @@
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="I5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:10">
@@ -1550,10 +1586,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="9"/>
       <c r="I6" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:10">
@@ -1563,10 +1599,10 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="I7" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1576,10 +1612,10 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="I8" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1589,10 +1625,10 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="I9" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10">
